--- a/TestData/excel/TestFileUpdated.xlsx
+++ b/TestData/excel/TestFileUpdated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wishpond/eclipse-workspace/WishpondFrameWork/TestData/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A712836-5AD9-B74F-9A38-7C04DE1BFBA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C727B7A-DD31-D746-810A-FA10915B1996}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16500" activeTab="8" xr2:uid="{6A97D463-93C1-3040-AD7E-67E5CC870191}"/>
   </bookViews>
@@ -148,7 +148,7 @@
     <t>ratna100@gmail.com</t>
   </si>
   <si>
-    <t>ratna70@gmail.com</t>
+    <t>ratna85@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -901,7 +901,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/TestData/excel/TestFileUpdated.xlsx
+++ b/TestData/excel/TestFileUpdated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wishpond/eclipse-workspace/WishpondFrameWork/TestData/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C727B7A-DD31-D746-810A-FA10915B1996}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{379B495D-E80C-6243-BCAF-B29C3BAFA0D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16500" activeTab="8" xr2:uid="{6A97D463-93C1-3040-AD7E-67E5CC870191}"/>
   </bookViews>
@@ -148,7 +148,7 @@
     <t>ratna100@gmail.com</t>
   </si>
   <si>
-    <t>ratna85@gmail.com</t>
+    <t>ratna101@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -901,7 +901,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/TestData/excel/TestFileUpdated.xlsx
+++ b/TestData/excel/TestFileUpdated.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wishpond/eclipse-workspace/WishpondFrameWork/TestData/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{379B495D-E80C-6243-BCAF-B29C3BAFA0D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8E1E483-E578-BE42-BF7F-6E3BDFC4C557}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16500" activeTab="8" xr2:uid="{6A97D463-93C1-3040-AD7E-67E5CC870191}"/>
   </bookViews>
@@ -148,7 +148,7 @@
     <t>ratna100@gmail.com</t>
   </si>
   <si>
-    <t>ratna101@gmail.com</t>
+    <t>ratna102@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -901,7 +901,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/TestData/excel/TestFileUpdated.xlsx
+++ b/TestData/excel/TestFileUpdated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wishpond/eclipse-workspace/WishpondFrameWork/TestData/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8E1E483-E578-BE42-BF7F-6E3BDFC4C557}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{180FBB54-7F01-D545-9E12-638FA3A6D850}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16500" activeTab="8" xr2:uid="{6A97D463-93C1-3040-AD7E-67E5CC870191}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16500" activeTab="9" xr2:uid="{6A97D463-93C1-3040-AD7E-67E5CC870191}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginNew" sheetId="2" r:id="rId1"/>
@@ -22,9 +22,11 @@
     <sheet name="Campaign" sheetId="7" r:id="rId7"/>
     <sheet name="NewLead" sheetId="8" r:id="rId8"/>
     <sheet name="NewUser" sheetId="12" r:id="rId9"/>
-    <sheet name="NewUserNegative" sheetId="14" r:id="rId10"/>
-    <sheet name="LeadSearch" sheetId="9" r:id="rId11"/>
-    <sheet name="Filter" sheetId="13" r:id="rId12"/>
+    <sheet name="ExpectedListName" sheetId="16" r:id="rId10"/>
+    <sheet name="ListName" sheetId="15" r:id="rId11"/>
+    <sheet name="NewUserNegative" sheetId="14" r:id="rId12"/>
+    <sheet name="LeadSearch" sheetId="9" r:id="rId13"/>
+    <sheet name="Filter" sheetId="13" r:id="rId14"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -47,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="37">
   <si>
     <t>Username</t>
   </si>
@@ -149,6 +151,15 @@
   </si>
   <si>
     <t>ratna102@gmail.com</t>
+  </si>
+  <si>
+    <t>Listname</t>
+  </si>
+  <si>
+    <t>Expectedlistname</t>
+  </si>
+  <si>
+    <t>RatnaList5</t>
   </si>
 </sst>
 </file>
@@ -549,6 +560,59 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E80F6597-7B61-AC4C-86B3-7E99C4DD3BD4}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="25.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D3CE805-77AB-9C48-B890-E90DAF67D8E3}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E9AF75D-1CB0-E345-9F88-1C798D08FFB4}">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -603,7 +667,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51E82093-B66E-234C-A937-B5E49D6DA9CC}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -634,7 +698,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65F07623-D778-CE42-A260-C2A1AD4014DA}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -900,7 +964,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC50F9BD-B681-A140-939D-4BB44F85D8CC}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>

--- a/TestData/excel/TestFileUpdated.xlsx
+++ b/TestData/excel/TestFileUpdated.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wishpond/eclipse-workspace/WishpondFrameWork/TestData/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{180FBB54-7F01-D545-9E12-638FA3A6D850}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C18EAEE8-3F87-0742-831D-7B80855FEAB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16500" activeTab="9" xr2:uid="{6A97D463-93C1-3040-AD7E-67E5CC870191}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16500" activeTab="1" xr2:uid="{6A97D463-93C1-3040-AD7E-67E5CC870191}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginNew" sheetId="2" r:id="rId1"/>
@@ -19,14 +19,18 @@
     <sheet name="invalidmerchantid" sheetId="10" r:id="rId4"/>
     <sheet name="PlanId" sheetId="4" r:id="rId5"/>
     <sheet name="doorman" sheetId="5" r:id="rId6"/>
-    <sheet name="Campaign" sheetId="7" r:id="rId7"/>
-    <sheet name="NewLead" sheetId="8" r:id="rId8"/>
-    <sheet name="NewUser" sheetId="12" r:id="rId9"/>
-    <sheet name="ExpectedListName" sheetId="16" r:id="rId10"/>
-    <sheet name="ListName" sheetId="15" r:id="rId11"/>
-    <sheet name="NewUserNegative" sheetId="14" r:id="rId12"/>
-    <sheet name="LeadSearch" sheetId="9" r:id="rId13"/>
-    <sheet name="Filter" sheetId="13" r:id="rId14"/>
+    <sheet name="LeadScore" sheetId="18" r:id="rId7"/>
+    <sheet name="Newsletter" sheetId="19" r:id="rId8"/>
+    <sheet name="FromPanel" sheetId="20" r:id="rId9"/>
+    <sheet name="Campaign" sheetId="7" r:id="rId10"/>
+    <sheet name="NewLead" sheetId="8" r:id="rId11"/>
+    <sheet name="NewUser" sheetId="12" r:id="rId12"/>
+    <sheet name="ExpectedListName" sheetId="16" r:id="rId13"/>
+    <sheet name="ListName" sheetId="15" r:id="rId14"/>
+    <sheet name="NewListName" sheetId="17" r:id="rId15"/>
+    <sheet name="NewUserNegative" sheetId="14" r:id="rId16"/>
+    <sheet name="LeadSearch" sheetId="9" r:id="rId17"/>
+    <sheet name="Filter" sheetId="13" r:id="rId18"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -49,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="44">
   <si>
     <t>Username</t>
   </si>
@@ -69,24 +73,15 @@
     <t>PlanId</t>
   </si>
   <si>
-    <t>website_builder</t>
-  </si>
-  <si>
     <t>doorman</t>
   </si>
   <si>
     <t>doormanvalidate</t>
   </si>
   <si>
-    <t>Remove: website_builder</t>
-  </si>
-  <si>
     <t>successmg</t>
   </si>
   <si>
-    <t>Successfully added feature: website_builder</t>
-  </si>
-  <si>
     <t>Campaign</t>
   </si>
   <si>
@@ -150,16 +145,46 @@
     <t>ratna100@gmail.com</t>
   </si>
   <si>
-    <t>ratna102@gmail.com</t>
-  </si>
-  <si>
     <t>Listname</t>
   </si>
   <si>
     <t>Expectedlistname</t>
   </si>
   <si>
-    <t>RatnaList5</t>
+    <t>ratna103@gmail.com</t>
+  </si>
+  <si>
+    <t>NewListName</t>
+  </si>
+  <si>
+    <t>RatnaList12Updated</t>
+  </si>
+  <si>
+    <t>RatnaList12</t>
+  </si>
+  <si>
+    <t>newsletter_v2_ui</t>
+  </si>
+  <si>
+    <t>Remove: newsletter_v2_ui</t>
+  </si>
+  <si>
+    <t>Successfully added feature: newsletter_v2_ui</t>
+  </si>
+  <si>
+    <t>LeadScore</t>
+  </si>
+  <si>
+    <t>Newsletter</t>
+  </si>
+  <si>
+    <t>Test Newsletter</t>
+  </si>
+  <si>
+    <t>FromName</t>
+  </si>
+  <si>
+    <t>FromEmail</t>
   </si>
 </sst>
 </file>
@@ -560,11 +585,152 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC69057D-C170-7646-B960-B9935FC967DB}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="31.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB8FA04A-AE13-0D4B-9F62-51D3CA56CDB0}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="27.5" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" customWidth="1"/>
+    <col min="4" max="4" width="25.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{901D69B2-1566-8E47-A6E1-5FC887850B83}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC50F9BD-B681-A140-939D-4BB44F85D8CC}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="17" customWidth="1"/>
+    <col min="6" max="6" width="23.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{0AD4F01D-457F-D546-8CCB-7FED21A30E93}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E80F6597-7B61-AC4C-86B3-7E99C4DD3BD4}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -574,45 +740,73 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D3CE805-77AB-9C48-B890-E90DAF67D8E3}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9459B24D-397D-6841-A4B8-4C16334E3A1D}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="27.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E9AF75D-1CB0-E345-9F88-1C798D08FFB4}">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -627,36 +821,36 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -667,7 +861,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51E82093-B66E-234C-A937-B5E49D6DA9CC}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -682,7 +876,95 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{227BC313-4974-644B-A93C-3E71AF0ECE95}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65F07623-D778-CE42-A260-C2A1AD4014DA}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="24.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBD1D158-A8EE-3242-8C5F-262C6237BCE1}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="31.5" customWidth="1"/>
+    <col min="2" max="2" width="22.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C9F4F9A-7BE7-6C48-95D6-2420BE5CCAD6}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="33.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
@@ -692,94 +974,6 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{227BC313-4974-644B-A93C-3E71AF0ECE95}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65F07623-D778-CE42-A260-C2A1AD4014DA}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="24.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBD1D158-A8EE-3242-8C5F-262C6237BCE1}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="31.5" customWidth="1"/>
-    <col min="2" max="2" width="22.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>169</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C9F4F9A-7BE7-6C48-95D6-2420BE5CCAD6}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="33.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{5E0461FB-63A4-E549-B9EB-932F1388BF01}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -801,7 +995,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
@@ -844,7 +1038,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -856,24 +1050,24 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>8</v>
-      </c>
-      <c r="C1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -882,142 +1076,95 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC69057D-C170-7646-B960-B9935FC967DB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{071602D8-D720-6941-BD97-4C88460E88DD}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="31.83203125" customWidth="1"/>
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41CDF469-C6D2-094E-A5B3-0B0B2499FDF0}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="40.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB8FA04A-AE13-0D4B-9F62-51D3CA56CDB0}">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="27.5" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" customWidth="1"/>
-    <col min="4" max="4" width="25.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>16</v>
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3691B8B-9E5B-FC4F-BA13-43DC0BE5D0FF}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.6640625" customWidth="1"/>
+    <col min="2" max="2" width="42.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>42</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" t="s">
-        <v>15</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{901D69B2-1566-8E47-A6E1-5FC887850B83}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{3723607F-A163-AC43-A21C-35B82666EBE2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC50F9BD-B681-A140-939D-4BB44F85D8CC}">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="5" max="5" width="17" customWidth="1"/>
-    <col min="6" max="6" width="23.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{0AD4F01D-457F-D546-8CCB-7FED21A30E93}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/TestData/excel/TestFileUpdated.xlsx
+++ b/TestData/excel/TestFileUpdated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wishpond/eclipse-workspace/WishpondFrameWork/TestData/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C18EAEE8-3F87-0742-831D-7B80855FEAB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EB0EC9E-105F-9E45-9C84-5B580F34CEAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16500" activeTab="1" xr2:uid="{6A97D463-93C1-3040-AD7E-67E5CC870191}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16500" activeTab="7" xr2:uid="{6A97D463-93C1-3040-AD7E-67E5CC870191}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginNew" sheetId="2" r:id="rId1"/>
@@ -20,17 +20,18 @@
     <sheet name="PlanId" sheetId="4" r:id="rId5"/>
     <sheet name="doorman" sheetId="5" r:id="rId6"/>
     <sheet name="LeadScore" sheetId="18" r:id="rId7"/>
-    <sheet name="Newsletter" sheetId="19" r:id="rId8"/>
-    <sheet name="FromPanel" sheetId="20" r:id="rId9"/>
-    <sheet name="Campaign" sheetId="7" r:id="rId10"/>
-    <sheet name="NewLead" sheetId="8" r:id="rId11"/>
-    <sheet name="NewUser" sheetId="12" r:id="rId12"/>
-    <sheet name="ExpectedListName" sheetId="16" r:id="rId13"/>
-    <sheet name="ListName" sheetId="15" r:id="rId14"/>
-    <sheet name="NewListName" sheetId="17" r:id="rId15"/>
-    <sheet name="NewUserNegative" sheetId="14" r:id="rId16"/>
-    <sheet name="LeadSearch" sheetId="9" r:id="rId17"/>
-    <sheet name="Filter" sheetId="13" r:id="rId18"/>
+    <sheet name="SubjectPanel" sheetId="21" r:id="rId8"/>
+    <sheet name="Newsletter" sheetId="19" r:id="rId9"/>
+    <sheet name="FromPanel" sheetId="20" r:id="rId10"/>
+    <sheet name="Campaign" sheetId="7" r:id="rId11"/>
+    <sheet name="NewLead" sheetId="8" r:id="rId12"/>
+    <sheet name="NewUser" sheetId="12" r:id="rId13"/>
+    <sheet name="ExpectedListName" sheetId="16" r:id="rId14"/>
+    <sheet name="ListName" sheetId="15" r:id="rId15"/>
+    <sheet name="NewListName" sheetId="17" r:id="rId16"/>
+    <sheet name="NewUserNegative" sheetId="14" r:id="rId17"/>
+    <sheet name="LeadSearch" sheetId="9" r:id="rId18"/>
+    <sheet name="Filter" sheetId="13" r:id="rId19"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -53,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="48">
   <si>
     <t>Username</t>
   </si>
@@ -185,6 +186,18 @@
   </si>
   <si>
     <t>FromEmail</t>
+  </si>
+  <si>
+    <t>Previewtext</t>
+  </si>
+  <si>
+    <t>Subject Line</t>
+  </si>
+  <si>
+    <t>Test Subject</t>
+  </si>
+  <si>
+    <t>This preview is for test purpose</t>
   </si>
 </sst>
 </file>
@@ -585,6 +598,44 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3691B8B-9E5B-FC4F-BA13-43DC0BE5D0FF}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.6640625" customWidth="1"/>
+    <col min="2" max="2" width="42.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{3723607F-A163-AC43-A21C-35B82666EBE2}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC69057D-C170-7646-B960-B9935FC967DB}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -612,7 +663,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB8FA04A-AE13-0D4B-9F62-51D3CA56CDB0}">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -663,7 +714,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC50F9BD-B681-A140-939D-4BB44F85D8CC}">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -725,7 +776,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E80F6597-7B61-AC4C-86B3-7E99C4DD3BD4}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -753,7 +804,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D3CE805-77AB-9C48-B890-E90DAF67D8E3}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -778,7 +829,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9459B24D-397D-6841-A4B8-4C16334E3A1D}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -806,7 +857,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E9AF75D-1CB0-E345-9F88-1C798D08FFB4}">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -861,7 +912,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51E82093-B66E-234C-A937-B5E49D6DA9CC}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -892,7 +943,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65F07623-D778-CE42-A260-C2A1AD4014DA}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -924,7 +975,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBD1D158-A8EE-3242-8C5F-262C6237BCE1}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -1104,6 +1155,41 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F70674C5-7E53-CC43-A16B-9BB103AA2712}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="33" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41CDF469-C6D2-094E-A5B3-0B0B2499FDF0}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -1129,42 +1215,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3691B8B-9E5B-FC4F-BA13-43DC0BE5D0FF}">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="16.6640625" customWidth="1"/>
-    <col min="2" max="2" width="42.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{3723607F-A163-AC43-A21C-35B82666EBE2}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>